--- a/intelligance3/Data/m.xlsx
+++ b/intelligance3/Data/m.xlsx
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12076042590</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20165327203</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>
